--- a/Excel/Функције2.xlsx
+++ b/Excel/Функције2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BILJA\DATA DIDAKTA\INFORMATIKA 8\PRIRUČNIK ZA 8\001 EXCEL\RS.8.1.5_Ресурси\RS.8.1.5_Окружење\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="2355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="2352"/>
   </bookViews>
   <sheets>
     <sheet name="Такмичење" sheetId="12" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +107,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="L54" authorId="0" shapeId="0">
+    <comment ref="L54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L55" authorId="0" shapeId="0">
+    <comment ref="L55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L56" authorId="0" shapeId="0">
+    <comment ref="L56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L57" authorId="0" shapeId="0">
+    <comment ref="L57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L58" authorId="0" shapeId="0">
+    <comment ref="L58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L59" authorId="0" shapeId="0">
+    <comment ref="L59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -316,12 +311,6 @@
     <t>ИЗВЕШТАЈ: ПРОСЕЧНЕ ТЕМПЕРАТУРЕ ПО ГОДИНАМА И МЕСЕЦИМА</t>
   </si>
   <si>
-    <t>Број просечних температура већих од 0, у целом извештају:</t>
-  </si>
-  <si>
-    <t>Број просечних температура мањих или једнаких 0, у целом извештају:</t>
-  </si>
-  <si>
     <t>Број празних ћелија:</t>
   </si>
   <si>
@@ -362,12 +351,18 @@
   </si>
   <si>
     <t>ТАКМИЧЕЊЕ ИНФОРМАТИКА</t>
+  </si>
+  <si>
+    <t>Број температура већих од 0, у целом извештају:</t>
+  </si>
+  <si>
+    <t>Број температура мањих или једнаких 0, у целом извештају:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -606,13 +601,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,48 +917,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="3" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -978,7 +973,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -993,7 +988,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1023,7 +1018,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -1038,7 +1033,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -1053,7 +1048,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -1083,7 +1078,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -1113,7 +1108,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -1128,7 +1123,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -1143,7 +1138,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -1158,7 +1153,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -1173,7 +1168,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -1218,7 +1213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -1233,7 +1228,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -1248,7 +1243,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1263,7 +1258,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1293,7 +1288,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>23</v>
       </c>
@@ -1308,7 +1303,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>24</v>
       </c>
@@ -1323,41 +1318,41 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1381,20 +1376,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1405,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1961</v>
       </c>
@@ -1489,7 +1484,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1962</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1963</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1964</v>
       </c>
@@ -1610,7 +1605,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1965</v>
       </c>
@@ -1651,7 +1646,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1966</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1967</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1968</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1969</v>
       </c>
@@ -1815,7 +1810,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1970</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1971</v>
       </c>
@@ -1895,7 +1890,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1972</v>
       </c>
@@ -1936,7 +1931,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1973</v>
       </c>
@@ -1975,7 +1970,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1974</v>
       </c>
@@ -2016,7 +2011,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1975</v>
       </c>
@@ -2057,7 +2052,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1976</v>
       </c>
@@ -2098,7 +2093,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1977</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1978</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1979</v>
       </c>
@@ -2221,7 +2216,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1980</v>
       </c>
@@ -2262,7 +2257,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1981</v>
       </c>
@@ -2303,7 +2298,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1982</v>
       </c>
@@ -2344,7 +2339,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1983</v>
       </c>
@@ -2385,7 +2380,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1984</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1985</v>
       </c>
@@ -2467,7 +2462,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1986</v>
       </c>
@@ -2508,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1987</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1988</v>
       </c>
@@ -2588,7 +2583,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1989</v>
       </c>
@@ -2629,7 +2624,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1990</v>
       </c>
@@ -2670,7 +2665,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1991</v>
       </c>
@@ -2711,7 +2706,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1992</v>
       </c>
@@ -2752,7 +2747,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1993</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1994</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1995</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1996</v>
       </c>
@@ -2914,7 +2909,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1997</v>
       </c>
@@ -2955,7 +2950,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1998</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1999</v>
       </c>
@@ -3037,7 +3032,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2000</v>
       </c>
@@ -3076,7 +3071,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2001</v>
       </c>
@@ -3117,7 +3112,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2002</v>
       </c>
@@ -3158,7 +3153,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2003</v>
       </c>
@@ -3199,7 +3194,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2004</v>
       </c>
@@ -3240,7 +3235,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2005</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2006</v>
       </c>
@@ -3322,7 +3317,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2007</v>
       </c>
@@ -3363,7 +3358,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2008</v>
       </c>
@@ -3404,25 +3399,25 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-    </row>
-    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B53" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -3433,12 +3428,12 @@
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-    </row>
-    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B55" s="13" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -3449,12 +3444,12 @@
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-    </row>
-    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -3465,12 +3460,12 @@
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-    </row>
-    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B57" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -3481,12 +3476,12 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-    </row>
-    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -3497,12 +3492,12 @@
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-    </row>
-    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -3513,16 +3508,11 @@
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B53:M53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:K56"/>
     <mergeCell ref="B59:K59"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="L59:M59"/>
@@ -3532,6 +3522,11 @@
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B53:M53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:K56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
